--- a/Bauteilelist.xlsx
+++ b/Bauteilelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>PCA9685pw,118</t>
   </si>
@@ -273,6 +273,45 @@
   </si>
   <si>
     <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Verfügbar bei2</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/elektrolyt-kondensator-radial-bedrahtet-5-mm-470-f-35-v-20-o-x-l-10-mm-x-20-mm-teapo-sy-470uf35v-10x20mm-1-st-444020.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/mkp-x2-funkentstoer-kondensator-radial-bedrahtet-2200-pf-300-vac-20-10-mm-l-x-b-x-h-13-x-4-x-95-mm-wima-mky22w1220-451076.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/pmic-led-treiber-nxp-semiconductors-pca9685pw112-linear-tssop-28-oberflaechenmontage-1116598.html?sc.ref=Category%20Product%20List</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/metallschicht-widerstand-220-axial-bedrahtet-0207-06-w-yageo-mf0207fte52-220r-1-st-1417626.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/kohleschicht-widerstand-10-k-axial-bedrahtet-0411-05-w-1-st-405370.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/kohleschicht-widerstand-470-k-axial-bedrahtet-0207-025-w-yageo-cfr-25jt-52-470k-1-st-1417648.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/schraubklemmblock-polzahl-2-ma331-100m02-deca-gruen-1-st-1216195.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/niedervolt-steckverbinder-buchse-einbau-horizontal-4-mm-21-mm-cliff-dc-10lp-1-st-735705.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/metallschicht-widerstand-39-k-axial-bedrahtet-0207-025-w-royalohm-mf0w4ff3901a50-1-st-1089922.html</t>
+  </si>
+  <si>
+    <t>Metallschicht-Widerstand 3.9 kΩ axial bedrahtet 0207 0.25 W Royalohm MF0W4FF3901A50 1 St.</t>
+  </si>
+  <si>
+    <t>MF0W4FF3901A50</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-BC-Components/PR01000103901JR500/?qs=sGAEpiMZZMu61qfTUdNhG%2f4r7Iw6CIky7%2fljY6JxjpI%3d</t>
   </si>
 </sst>
 </file>
@@ -393,12 +432,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Bauteil Name"/>
     <tableColumn id="2" name="Wert/Beschreibung"/>
-    <tableColumn id="3" name="Verfügbar bei"/>
+    <tableColumn id="7" name="Verfügbar bei"/>
+    <tableColumn id="3" name="Verfügbar bei2"/>
     <tableColumn id="4" name="Preis" dataDxfId="0"/>
     <tableColumn id="5" name="Menge"/>
     <tableColumn id="6" name="Spalte1"/>
@@ -670,20 +710,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="133.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="155.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -694,16 +735,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -711,53 +755,57 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1.9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.42</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>2.13</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -765,16 +813,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1.05</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -782,16 +833,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.44</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -799,16 +853,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>3.55</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -816,16 +873,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -833,16 +893,19 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.6</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -850,33 +913,56 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.78</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -884,23 +970,27 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>1.44</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bauteilelist.xlsx
+++ b/Bauteilelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>PCA9685pw,118</t>
   </si>
@@ -269,9 +269,6 @@
     <t>284506-2</t>
   </si>
   <si>
-    <t>Checked</t>
-  </si>
-  <si>
     <t>Spalte1</t>
   </si>
   <si>
@@ -312,6 +309,24 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/Vishay-BC-Components/PR01000103901JR500/?qs=sGAEpiMZZMu61qfTUdNhG%2f4r7Iw6CIky7%2fljY6JxjpI%3d</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.de/products/2x20-pin-gpio-header-for-raspberry-pi-2-b-a?utm_medium=cpc&amp;utm_source=googlepla&amp;variant=6983087172&amp;gclid=EAIaIQobChMIppKpitzW1wIVEpMbCh06RAm8EAYYASABEgKWFfD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/ic-buchsenleiste-rastermass-254-mm-polzahl-40-w-p-products-186-40-1-50-00-1-st-719410.html</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>https://www.conrad.biz/de/led-sortiment-gruen-rot-gelb-rund-3-mm-5-mm-1359801.html</t>
+  </si>
+  <si>
+    <t>1359801 - 05</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Wurth-Electronics/151033GS03000/?qs=sGAEpiMZZMusoohG2hS%252b1%2f8oH%2fkhWuyF92ozQhWbRIRt6W%252bCAQfXKw%3d%3d</t>
   </si>
 </sst>
 </file>
@@ -397,7 +412,10 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
@@ -432,14 +450,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G18" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Bauteil Name"/>
     <tableColumn id="2" name="Wert/Beschreibung"/>
     <tableColumn id="7" name="Verfügbar bei"/>
     <tableColumn id="3" name="Verfügbar bei2"/>
-    <tableColumn id="4" name="Preis" dataDxfId="0"/>
+    <tableColumn id="4" name="Preis" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(E2:E17)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="5" name="Menge"/>
     <tableColumn id="6" name="Spalte1"/>
   </tableColumns>
@@ -710,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +741,7 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="155.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="133.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="158.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -744,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -784,9 +804,6 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -795,6 +812,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
@@ -813,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -833,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -853,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -873,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -893,7 +913,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -913,7 +933,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -927,16 +947,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="2">
         <v>0.13</v>
@@ -952,6 +972,9 @@
       <c r="B15" t="s">
         <v>34</v>
       </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
@@ -960,6 +983,26 @@
       </c>
       <c r="F15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,7 +1013,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -980,6 +1023,12 @@
       </c>
       <c r="F17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f>SUM(E2:E17)</f>
+        <v>17.319999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Bauteilelist.xlsx
+++ b/Bauteilelist.xlsx
@@ -278,30 +278,15 @@
     <t>https://www.conrad.de/de/elektrolyt-kondensator-radial-bedrahtet-5-mm-470-f-35-v-20-o-x-l-10-mm-x-20-mm-teapo-sy-470uf35v-10x20mm-1-st-444020.html</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/mkp-x2-funkentstoer-kondensator-radial-bedrahtet-2200-pf-300-vac-20-10-mm-l-x-b-x-h-13-x-4-x-95-mm-wima-mky22w1220-451076.html</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/pmic-led-treiber-nxp-semiconductors-pca9685pw112-linear-tssop-28-oberflaechenmontage-1116598.html?sc.ref=Category%20Product%20List</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/metallschicht-widerstand-220-axial-bedrahtet-0207-06-w-yageo-mf0207fte52-220r-1-st-1417626.html</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/kohleschicht-widerstand-10-k-axial-bedrahtet-0411-05-w-1-st-405370.html</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/kohleschicht-widerstand-470-k-axial-bedrahtet-0207-025-w-yageo-cfr-25jt-52-470k-1-st-1417648.html</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/schraubklemmblock-polzahl-2-ma331-100m02-deca-gruen-1-st-1216195.html</t>
   </si>
   <si>
     <t>https://www.conrad.de/de/niedervolt-steckverbinder-buchse-einbau-horizontal-4-mm-21-mm-cliff-dc-10lp-1-st-735705.html</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/metallschicht-widerstand-39-k-axial-bedrahtet-0207-025-w-royalohm-mf0w4ff3901a50-1-st-1089922.html</t>
-  </si>
-  <si>
     <t>Metallschicht-Widerstand 3.9 kΩ axial bedrahtet 0207 0.25 W Royalohm MF0W4FF3901A50 1 St.</t>
   </si>
   <si>
@@ -327,6 +312,21 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/Wurth-Electronics/151033GS03000/?qs=sGAEpiMZZMusoohG2hS%252b1%2f8oH%2fkhWuyF92ozQhWbRIRt6W%252bCAQfXKw%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/dickschicht-widerstand-39-k-smd-0805-0125-w-1-100-ppmc-royalohm-0805s8f3901t5e-1-st-1208685.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/dickschicht-widerstand-10-k-smd-1206-025-w-1-royalohm-1206s4f1002t5e-1-st-1208947.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/dickschicht-widerstand-470-smd-0805-033-w-1-100-ppmc-royalohm-hp05w3f4700t5e-1-st-1376870.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/dickschicht-widerstand-220-smd-0805-033-w-1-100-ppmc-royalohm-hp05w3f2200t5e-1-st-1376866.html</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/keramik-kondensator-smd-0603-10-pf-50-v-5-1-st-454117.html</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -833,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -853,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -893,13 +893,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -913,13 +913,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -933,13 +933,13 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
-        <v>0.78</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -947,19 +947,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -987,16 +987,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2">
         <v>0.22</v>
@@ -1013,7 +1013,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -1028,7 +1028,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f>SUM(E2:E17)</f>
-        <v>17.319999999999997</v>
+        <v>15.799999999999997</v>
       </c>
     </row>
   </sheetData>
